--- a/_resource/excel/table/W-玩家-进入游戏-(框架定义,后端维护).xlsx
+++ b/_resource/excel/table/W-玩家-进入游戏-(框架定义,后端维护).xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="enter" sheetId="1" r:id="rId1"/>
+    <sheet name="leave" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -64,8 +65,51 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>刘小兵(橘右京)</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>key=Id     列表字段主键( 不填的话, 表示没有key, 用0代替 )
+channel=0   是否区分渠道, 默认不区分
+repeat=1  表示字段id可以重复
+cpp=xxxx cpp生成的类名( 不填表示不生成 )
+lua=xxxx lua生成的类名
+c#=xxx c#生成的类名
+xml=xxxx 生成的xml文件名</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>描述说明</t>
   </si>
@@ -143,12 +187,60 @@
   <si>
     <t>Description</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml=leave</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>key=Int,Id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpp=Leave</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Channel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuaFile</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuaFunction</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -290,7 +382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -328,6 +420,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -849,4 +950,160 @@
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="44.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="39.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="27.5" style="3" customWidth="1"/>
+    <col min="13" max="14" width="17.125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="17.125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="8.375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="16.25" style="3" customWidth="1"/>
+    <col min="19" max="19" width="19.625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="16" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>